--- a/路线测试文件/test-router - 大数据.xlsx
+++ b/路线测试文件/test-router - 大数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janspiry\Desktop\new_Delivery\路线测试文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E087A2-2526-490C-984C-628893C9E94B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7895ED-F0A6-426A-A470-402453A643A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" tabRatio="502" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -682,10 +682,10 @@
         <v>10.8</v>
       </c>
       <c r="U2" s="6">
-        <v>6.7</v>
+        <v>16.7</v>
       </c>
       <c r="V2">
-        <v>5.5</v>
+        <v>15.5</v>
       </c>
       <c r="W2" s="8">
         <v>16</v>
@@ -733,9 +733,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="3">
-        <v>7.4</v>
-      </c>
+      <c r="L3" s="3"/>
       <c r="M3" s="3">
         <v>0</v>
       </c>
@@ -812,12 +810,8 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="3">
-        <v>12.1</v>
-      </c>
-      <c r="M4" s="3">
-        <v>5.8</v>
-      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
       <c r="N4" s="3">
         <v>0</v>
       </c>
@@ -891,15 +885,9 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="3">
-        <v>5.3</v>
-      </c>
-      <c r="M5" s="3">
-        <v>9</v>
-      </c>
-      <c r="N5" s="3">
-        <v>12.2</v>
-      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
       <c r="O5" s="3">
         <v>0</v>
       </c>
@@ -970,18 +958,10 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="M6" s="3">
-        <v>7.1</v>
-      </c>
-      <c r="N6" s="3">
-        <v>9.4</v>
-      </c>
-      <c r="O6" s="3">
-        <v>4.9000000000000004</v>
-      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
       <c r="P6" s="3">
         <v>0</v>
       </c>
@@ -1049,27 +1029,13 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="M7" s="3">
-        <v>11.4</v>
-      </c>
-      <c r="N7" s="3">
-        <v>10.1</v>
-      </c>
-      <c r="O7" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="P7" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3">
-        <v>3.9</v>
-      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
       <c r="S7" s="3">
         <v>10</v>
       </c>
@@ -1128,27 +1094,13 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="3">
-        <v>11.9</v>
-      </c>
-      <c r="M8" s="3">
-        <v>12.8</v>
-      </c>
-      <c r="N8" s="3">
-        <v>13.7</v>
-      </c>
-      <c r="O8" s="3">
-        <v>7.8</v>
-      </c>
-      <c r="P8" s="3">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
       <c r="S8" s="3">
         <v>10.8</v>
       </c>
@@ -1207,27 +1159,13 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="3">
-        <v>11.2</v>
-      </c>
-      <c r="M9" s="3">
-        <v>6.9</v>
-      </c>
-      <c r="N9" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="O9" s="3">
-        <v>11.9</v>
-      </c>
-      <c r="P9" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>10</v>
-      </c>
-      <c r="R9" s="3">
-        <v>10.8</v>
-      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
       <c r="S9" s="3">
         <v>0</v>
       </c>
@@ -1286,30 +1224,14 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="3">
-        <v>10.8</v>
-      </c>
-      <c r="M10" s="3">
-        <v>10.7</v>
-      </c>
-      <c r="N10" s="3">
-        <v>9</v>
-      </c>
-      <c r="O10" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="P10" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="R10" s="3">
-        <v>5.7</v>
-      </c>
-      <c r="S10" s="3">
-        <v>5.5</v>
-      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
       <c r="T10" s="3">
         <v>0</v>
       </c>
@@ -1357,33 +1279,15 @@
       <c r="C11" s="4">
         <v>6</v>
       </c>
-      <c r="L11" s="6">
-        <v>6.7</v>
-      </c>
-      <c r="M11" s="6">
-        <v>5</v>
-      </c>
-      <c r="N11" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="O11" s="6">
-        <v>45</v>
-      </c>
-      <c r="P11" s="6">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>45</v>
-      </c>
-      <c r="R11" s="6">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="S11" s="6">
-        <v>12.8</v>
-      </c>
-      <c r="T11" s="6">
-        <v>5</v>
-      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
       <c r="U11">
         <v>0</v>
       </c>
@@ -1428,36 +1332,16 @@
       <c r="C12" s="4">
         <v>15</v>
       </c>
-      <c r="L12" s="6">
-        <v>5.5</v>
-      </c>
-      <c r="M12" s="6">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="N12" s="6">
-        <v>56.7</v>
-      </c>
-      <c r="O12" s="6">
-        <v>23.4</v>
-      </c>
-      <c r="P12" s="6">
-        <v>34</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>67</v>
-      </c>
-      <c r="R12" s="6">
-        <v>67</v>
-      </c>
-      <c r="S12" s="6">
-        <v>56</v>
-      </c>
-      <c r="T12" s="6">
-        <v>67.8</v>
-      </c>
-      <c r="U12" s="8">
-        <v>54</v>
-      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="8"/>
       <c r="V12">
         <v>0</v>
       </c>
@@ -1499,39 +1383,17 @@
       <c r="C13" s="4">
         <v>2</v>
       </c>
-      <c r="L13" s="6">
-        <v>16</v>
-      </c>
-      <c r="M13" s="6">
-        <v>7.9</v>
-      </c>
-      <c r="N13" s="6">
-        <v>23.6</v>
-      </c>
-      <c r="O13" s="6">
-        <v>15</v>
-      </c>
-      <c r="P13" s="6">
-        <v>56</v>
-      </c>
-      <c r="Q13" s="6">
-        <v>23</v>
-      </c>
-      <c r="R13" s="6">
-        <v>34.5</v>
-      </c>
-      <c r="S13" s="8">
-        <v>13.7</v>
-      </c>
-      <c r="T13" s="6">
-        <v>45.8</v>
-      </c>
-      <c r="U13" s="8">
-        <v>34.9</v>
-      </c>
-      <c r="V13" s="7">
-        <v>45</v>
-      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="7"/>
       <c r="W13">
         <v>0</v>
       </c>
@@ -1570,42 +1432,18 @@
       <c r="C14" s="4">
         <v>14</v>
       </c>
-      <c r="L14" s="6">
-        <v>24.8</v>
-      </c>
-      <c r="M14" s="6">
-        <v>10</v>
-      </c>
-      <c r="N14" s="6">
-        <v>13.6</v>
-      </c>
-      <c r="O14" s="6">
-        <v>56.8</v>
-      </c>
-      <c r="P14" s="6">
-        <v>14.7</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>49</v>
-      </c>
-      <c r="R14" s="6">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="S14" s="8">
-        <v>7.8</v>
-      </c>
-      <c r="T14" s="6">
-        <v>23</v>
-      </c>
-      <c r="U14" s="8">
-        <v>25.8</v>
-      </c>
-      <c r="V14" s="7">
-        <v>34</v>
-      </c>
-      <c r="W14" s="7">
-        <v>34</v>
-      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
       <c r="X14">
         <v>0</v>
       </c>
@@ -1641,45 +1479,19 @@
       <c r="C15" s="4">
         <v>11</v>
       </c>
-      <c r="L15" s="6">
-        <v>45</v>
-      </c>
-      <c r="M15" s="6">
-        <v>14</v>
-      </c>
-      <c r="N15" s="6">
-        <v>23</v>
-      </c>
-      <c r="O15" s="6">
-        <v>12</v>
-      </c>
-      <c r="P15" s="6">
-        <v>25.8</v>
-      </c>
-      <c r="Q15" s="6">
-        <v>58</v>
-      </c>
-      <c r="R15" s="6">
-        <v>48</v>
-      </c>
-      <c r="S15" s="8">
-        <v>6</v>
-      </c>
-      <c r="T15" s="6">
-        <v>46</v>
-      </c>
-      <c r="U15" s="8">
-        <v>14.7</v>
-      </c>
-      <c r="V15" s="7">
-        <v>23.7</v>
-      </c>
-      <c r="W15" s="7">
-        <v>26.6</v>
-      </c>
-      <c r="X15" s="7">
-        <v>34</v>
-      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
       <c r="Y15">
         <v>0</v>
       </c>
@@ -1712,48 +1524,20 @@
       <c r="C16" s="4">
         <v>2</v>
       </c>
-      <c r="L16" s="6">
-        <v>23.9</v>
-      </c>
-      <c r="M16" s="6">
-        <v>12.8</v>
-      </c>
-      <c r="N16" s="6">
-        <v>14</v>
-      </c>
-      <c r="O16" s="6">
-        <v>14.5</v>
-      </c>
-      <c r="P16" s="6">
-        <v>15.8</v>
-      </c>
-      <c r="Q16" s="6">
-        <v>37</v>
-      </c>
-      <c r="R16" s="6">
-        <v>37.700000000000003</v>
-      </c>
-      <c r="S16" s="8">
-        <v>3.9</v>
-      </c>
-      <c r="T16" s="6">
-        <v>17</v>
-      </c>
-      <c r="U16" s="8">
-        <v>34.5</v>
-      </c>
-      <c r="V16" s="7">
-        <v>16</v>
-      </c>
-      <c r="W16" s="7">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="X16" s="7">
-        <v>12</v>
-      </c>
-      <c r="Y16" s="7">
-        <v>25</v>
-      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
       <c r="Z16">
         <v>0</v>
       </c>
@@ -1783,51 +1567,21 @@
       <c r="C17" s="4">
         <v>0</v>
       </c>
-      <c r="L17" s="6">
-        <v>11.8</v>
-      </c>
-      <c r="M17" s="6">
-        <v>21.8</v>
-      </c>
-      <c r="N17" s="6">
-        <v>25.5</v>
-      </c>
-      <c r="O17" s="6">
-        <v>24.6</v>
-      </c>
-      <c r="P17" s="6">
-        <v>34.6</v>
-      </c>
-      <c r="Q17" s="6">
-        <v>19</v>
-      </c>
-      <c r="R17" s="6">
-        <v>89.9</v>
-      </c>
-      <c r="S17" s="8">
-        <v>45</v>
-      </c>
-      <c r="T17" s="6">
-        <v>23.8</v>
-      </c>
-      <c r="U17" s="8">
-        <v>7.8</v>
-      </c>
-      <c r="V17" s="7">
-        <v>36</v>
-      </c>
-      <c r="W17" s="7">
-        <v>28</v>
-      </c>
-      <c r="X17" s="7">
-        <v>56</v>
-      </c>
-      <c r="Y17" s="7">
-        <v>35.6</v>
-      </c>
-      <c r="Z17" s="7">
-        <v>34</v>
-      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
       <c r="AA17">
         <v>0</v>
       </c>
@@ -1854,54 +1608,22 @@
       <c r="C18" s="4">
         <v>7</v>
       </c>
-      <c r="L18" s="6">
-        <v>24</v>
-      </c>
-      <c r="M18" s="6">
-        <v>13.8</v>
-      </c>
-      <c r="N18" s="6">
-        <v>13.8</v>
-      </c>
-      <c r="O18" s="6">
-        <v>13.4</v>
-      </c>
-      <c r="P18" s="6">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>10</v>
-      </c>
-      <c r="R18" s="6">
-        <v>76.7</v>
-      </c>
-      <c r="S18" s="8">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="T18" s="6">
-        <v>17</v>
-      </c>
-      <c r="U18" s="8">
-        <v>26</v>
-      </c>
-      <c r="V18" s="7">
-        <v>65</v>
-      </c>
-      <c r="W18" s="7">
-        <v>31</v>
-      </c>
-      <c r="X18" s="7">
-        <v>47.7</v>
-      </c>
-      <c r="Y18" s="7">
-        <v>34</v>
-      </c>
-      <c r="Z18" s="7">
-        <v>56</v>
-      </c>
-      <c r="AA18" s="7">
-        <v>34</v>
-      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
       <c r="AB18">
         <v>0</v>
       </c>
@@ -1925,57 +1647,23 @@
       <c r="C19" s="4">
         <v>4</v>
       </c>
-      <c r="L19" s="6">
-        <v>41.6</v>
-      </c>
-      <c r="M19" s="6">
-        <v>43.8</v>
-      </c>
-      <c r="N19" s="6">
-        <v>43</v>
-      </c>
-      <c r="O19" s="6">
-        <v>15.5</v>
-      </c>
-      <c r="P19" s="6">
-        <v>16</v>
-      </c>
-      <c r="Q19" s="6">
-        <v>20</v>
-      </c>
-      <c r="R19" s="6">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="S19" s="8">
-        <v>18</v>
-      </c>
-      <c r="T19" s="6">
-        <v>25.9</v>
-      </c>
-      <c r="U19" s="8">
-        <v>14.7</v>
-      </c>
-      <c r="V19" s="7">
-        <v>39</v>
-      </c>
-      <c r="W19" s="7">
-        <v>29</v>
-      </c>
-      <c r="X19" s="7">
-        <v>34</v>
-      </c>
-      <c r="Y19" s="7">
-        <v>25.6</v>
-      </c>
-      <c r="Z19" s="7">
-        <v>14.7</v>
-      </c>
-      <c r="AA19" s="7">
-        <v>56</v>
-      </c>
-      <c r="AB19" s="7">
-        <v>34.4</v>
-      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
       <c r="AC19">
         <v>0</v>
       </c>
@@ -1996,60 +1684,23 @@
       <c r="C20" s="4">
         <v>1</v>
       </c>
-      <c r="L20">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="M20" s="6">
-        <v>12.4</v>
-      </c>
-      <c r="N20" s="6">
-        <v>17</v>
-      </c>
-      <c r="O20" s="6">
-        <v>16.7</v>
-      </c>
-      <c r="P20" s="6">
-        <v>23</v>
-      </c>
-      <c r="Q20" s="6">
-        <v>55</v>
-      </c>
-      <c r="R20" s="6">
-        <v>23.7</v>
-      </c>
-      <c r="S20" s="8">
-        <v>45</v>
-      </c>
-      <c r="T20" s="6">
-        <v>67</v>
-      </c>
-      <c r="U20" s="8">
-        <v>34</v>
-      </c>
-      <c r="V20" s="7">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="W20" s="7">
-        <v>18</v>
-      </c>
-      <c r="X20" s="7">
-        <v>23.9</v>
-      </c>
-      <c r="Y20" s="7">
-        <v>17</v>
-      </c>
-      <c r="Z20" s="7">
-        <v>45.8</v>
-      </c>
-      <c r="AA20" s="7">
-        <v>45.9</v>
-      </c>
-      <c r="AB20" s="7">
-        <v>47</v>
-      </c>
-      <c r="AC20" s="7">
-        <v>6</v>
-      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
       <c r="AD20">
         <v>0</v>
       </c>
@@ -2067,63 +1718,25 @@
       <c r="C21" s="4">
         <v>3</v>
       </c>
-      <c r="L21" s="7">
-        <v>5.8</v>
-      </c>
-      <c r="M21" s="6">
-        <v>13.8</v>
-      </c>
-      <c r="N21" s="6">
-        <v>24.8</v>
-      </c>
-      <c r="O21" s="6">
-        <v>18</v>
-      </c>
-      <c r="P21" s="6">
-        <v>67</v>
-      </c>
-      <c r="Q21" s="6">
-        <v>39</v>
-      </c>
-      <c r="R21" s="6">
-        <v>19</v>
-      </c>
-      <c r="S21" s="8">
-        <v>26</v>
-      </c>
-      <c r="T21" s="6">
-        <v>45</v>
-      </c>
-      <c r="U21" s="8">
-        <v>23.1</v>
-      </c>
-      <c r="V21" s="7">
-        <v>14</v>
-      </c>
-      <c r="W21" s="7">
-        <v>12.9</v>
-      </c>
-      <c r="X21" s="7">
-        <v>17.8</v>
-      </c>
-      <c r="Y21" s="7">
-        <v>23.6</v>
-      </c>
-      <c r="Z21" s="7">
-        <v>65.8</v>
-      </c>
-      <c r="AA21" s="7">
-        <v>45</v>
-      </c>
-      <c r="AB21" s="7">
-        <v>38.5</v>
-      </c>
-      <c r="AC21" s="7">
-        <v>14</v>
-      </c>
-      <c r="AD21" s="7">
-        <v>5</v>
-      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
       <c r="AE21">
         <v>0</v>
       </c>
